--- a/biology/Microbiologie/Fusobacteriales/Fusobacteriales.xlsx
+++ b/biology/Microbiologie/Fusobacteriales/Fusobacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fusobacteriales sont un ordre de bacilles Gram négatifs de la classe des Fusobacteriia. Son nom provient de Fusobacterium qui est le genre type de cet ordre.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est proposé en 2012 par J.T. Staley et W.B. Whitman dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[2]. Il est validé la même année par une publication dans l'IJSEM[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est proposé en 2012 par J.T. Staley et W.B. Whitman dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Il est validé la même année par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (18 novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (18 novembre 2022) :
 Fusobacteriaceae Staley &amp; Whitman 2012
 Leptotrichiaceae Staley &amp; Whitman 2012</t>
         </is>
